--- a/jor/结果jsp5_1.xlsx
+++ b/jor/结果jsp5_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>ITS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -92,32 +92,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>F1</t>
+    <t>实例2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F2</t>
+    <t>实例3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舰载机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起飞时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>实例4</t>
+  </si>
+  <si>
+    <t>实例5</t>
   </si>
 </sst>
 </file>
@@ -155,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,17 +149,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1669,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="J28" sqref="J28:P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2226,80 +2233,129 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K28" s="1"/>
-      <c r="L28" s="1" t="s">
+      <c r="J28" s="3"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1" t="s">
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P28" s="1"/>
+      <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K29" s="1" t="s">
+      <c r="J29" s="3"/>
+      <c r="K29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="P29" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K30" s="1">
-        <v>149</v>
-      </c>
-      <c r="L30" s="1">
+      <c r="J30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="4">
+        <v>149</v>
+      </c>
+      <c r="L30" s="4">
         <v>0.23899999999999999</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>4</v>
       </c>
-      <c r="N30" s="1">
-        <v>149</v>
-      </c>
-      <c r="O30" s="1">
+      <c r="N30" s="4">
+        <v>149</v>
+      </c>
+      <c r="O30" s="4">
         <v>0.505</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="J31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N31" t="s">
+      <c r="K31" s="3">
+        <v>162</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2.8010000000000002</v>
+      </c>
+      <c r="M31" s="3">
+        <v>62</v>
+      </c>
+      <c r="N31" s="3">
+        <v>162</v>
+      </c>
+      <c r="O31" s="3">
+        <v>20.457000000000001</v>
+      </c>
+      <c r="P31" s="3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O31" t="s">
+      <c r="K32" s="3">
+        <v>175</v>
+      </c>
+      <c r="L32" s="3">
+        <v>4.8289999999999997</v>
+      </c>
+      <c r="M32" s="3">
+        <v>84</v>
+      </c>
+      <c r="N32" s="3">
+        <v>175</v>
+      </c>
+      <c r="O32" s="3">
+        <v>31.088999999999999</v>
+      </c>
+      <c r="P32" s="3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="33" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K32" t="s">
-        <v>27</v>
+      <c r="K33" s="3">
+        <v>198</v>
+      </c>
+      <c r="L33" s="3">
+        <v>50.612000000000002</v>
+      </c>
+      <c r="M33" s="3">
+        <v>523</v>
+      </c>
+      <c r="N33" s="3">
+        <v>199</v>
+      </c>
+      <c r="O33" s="3">
+        <v>96.641000000000005</v>
+      </c>
+      <c r="P33" s="3">
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
